--- a/src/test/java/tests/K00_KisiselWebTestlerim/urunler.xlsx
+++ b/src/test/java/tests/K00_KisiselWebTestlerim/urunler.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka.DESKTOP-U8GPDCH\Desktop\Yazılım\seleniumegitim\javaselenium\src\test\java\tests\K00_KisiselWebTestlerim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBEEB1B-453D-4070-AF33-9A517D4AB9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0B881E-AA72-4003-BEC3-BD231CB30444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,22 +17,210 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+  <si>
+    <t>Nimmy iPhone 16 Pro Max Uyumlu Nakış Işlemeli 3 Boyutlu 3D Kabartmalı Big Eyes Series Silikon Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>1418</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Pro Little Hipster Man Series Gri Nakış İşlemeli Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 16 Uyumlu Nakış Işlemeli 3 Boyutlu 3D Detaylı Kabartmalı Cool Cute 2.0 Silikon Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Pro Big Eyes Serisi Kedi Nakış İşlemeli 3D Detaylı Pembe Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Pro Max Little Hipster Man Series Gri Nakış İşlemeli Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Magsafe Uyumlu Golden Dragon Series Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Pro Gri Dog Series Köpek Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 14 Pro Max Magsafe Uyumlu Flamengo Series Pembe Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>1299</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 16 Pro Max Uyumlu Nakış Işlemeli 3D Detaylı Magsafe Fantasy Animal Series Silikon Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Pro Max Cool Cute 2.0 Series Gorilla Siyah Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Pro Max Dog Serisi Nakış İşlemeli Gözlük Detaylı 3D Sarı Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>1048</t>
+  </si>
+  <si>
+    <t>Nimmy Worf Serisi Kurt Nakış Işlemeli Detaylı Kılıf iPhone 14 Pro Max Sarı</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 14 Pro Max Magsafe Uyumlu Nakış Unicorn İşlemeli Mavi Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Littile Rich Tycoon Series Siyah Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>1499</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Pro Max Gri Dog Series Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Pro Hiphop Serisi Kedi Nakış İşlemeli Zincir Detaylı Siyah Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Dog Serisi Nakış İşlemeli Gözlük Detaylı Siyah Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>1479</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Hiphop Serisi Kedi Nakış İşlemeli Zincir Detaylı Siyah Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>1259</t>
+  </si>
+  <si>
+    <t>Powerway TX10 Beyaz 10.000 mAh Dijital Göstergeli 2 Çıkışlı Powerbank</t>
+  </si>
+  <si>
+    <t>Powerway QC20 Beyaz 20.000 Mah PD 22.5W Dahili Kablolu Hızlı Şarj Led Işıklı Powerbank</t>
+  </si>
+  <si>
+    <t>Powerway Pd 22.5W 20.000 Mah 3.0 Hızlı Şarj (Gerçek 20.000 Mah Garantili) QC20 Beyaz Powerbank</t>
+  </si>
+  <si>
+    <t>Powerway 10.000 Mah Kablolu Dijital Göstergeli Gerçek 10.000 Mah Garantili İnce Tasarım TX108 Beyaz Powerbank</t>
+  </si>
+  <si>
+    <t>Powerway 120.000 Mah Pd 22.5W Hızlı Şarj Dahili Kablolu Gerçek 120.000 Mah Siyah Trafo Powerbank</t>
+  </si>
+  <si>
+    <t>2420</t>
+  </si>
+  <si>
+    <t>Powerway 120.000 mAh Dev Kapasiteli Powerbank – 22.5W Pd Hızlı Şarj &amp; LED Fenerli</t>
+  </si>
+  <si>
+    <t>3731</t>
+  </si>
+  <si>
+    <t>Powerway 10.000 Mah Kablolu Dijital Göstergeli 10.000 Mah Garantili Dahili Stand TX109 Beyaz Powerbank</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>Powerway Pd 22.5W 20.000 Mah 3.0 Hızlı Şarj (Gerçek 20.000 Mah Garantili) QC20 Beyaz Powerbank</t>
+  </si>
+  <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>Powerway 30.000 Mah Pd 22.5W Dahili Kablolu Hızlı Şarj LED Fener Gerçek 30.000 Mah QC30S Powerbank</t>
+  </si>
+  <si>
+    <t>967</t>
+  </si>
+  <si>
+    <t>Powerway 60.000 Mah Kablolu Dijital Göstergeli Gerçek 60.000 Mah Garantili Işıklı Kamp TX60 Siyah Powerbank</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>Powerway Pd 22.5W 60.000 Mah 3.0 Hızlı Şarj (Gerçek 60.000 Mah ) QC60 Powerbank</t>
+  </si>
+  <si>
+    <t>1534</t>
+  </si>
+  <si>
+    <t>Powerway 20.000 Mah Kablolu Dijital Göstergeli 20.000 Mah Garantili Dahili Stand TX209 Siyah Powerbank</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>Xo Metal Boy ve Açı Ayarlı Orta Konsol Torpido Mıknatıslı Manyetik Araç İçi Telefon Tutucu C147</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>Xo Uzunluk Ayarlı Orta Konsol Torpido Vantuzlu Çift Telefon Destekli Araç İçi Telefon Tutucu C117</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>Xo Vakumlu Sabitleme Mekanizmalı Açı Uzunluk Ayarlı Konsol Cam Torpido Araç İçi Telefon Tutucu C146</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4B5563"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,8 +243,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,14 +529,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="100.85546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/java/tests/K00_KisiselWebTestlerim/urunler.xlsx
+++ b/src/test/java/tests/K00_KisiselWebTestlerim/urunler.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Nimmy iPhone 16 Pro Max Uyumlu Nakış Işlemeli 3 Boyutlu 3D Kabartmalı Big Eyes Series Silikon Telefon Kılıfı</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>489</t>
+  </si>
+  <si>
+    <t>Everton RT-301B El Fenerli Taşınabilir Nostaljik Radyo Hoparlör USB Tf Aux Destekli</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>Everton Rt-821 Bluetooth Fm-Usb-Tf-Aux Nostaljik Radyo</t>
+  </si>
+  <si>
+    <t>1092</t>
   </si>
 </sst>
 </file>
@@ -529,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
@@ -804,6 +816,22 @@
         <v>53</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/test/java/tests/K00_KisiselWebTestlerim/urunler.xlsx
+++ b/src/test/java/tests/K00_KisiselWebTestlerim/urunler.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>Nimmy iPhone 16 Pro Max Uyumlu Nakış Işlemeli 3 Boyutlu 3D Kabartmalı Big Eyes Series Silikon Telefon Kılıfı</t>
   </si>
@@ -199,6 +199,90 @@
   </si>
   <si>
     <t>1092</t>
+  </si>
+  <si>
+    <t>Everton Nostaljik Radyo, Ahşap Desen ve Şık Tasarım (Işıklı Nostaljik Radyo)</t>
+  </si>
+  <si>
+    <t>664</t>
+  </si>
+  <si>
+    <t>Everton Rt-810 Fm-Usb-Tf-Aux Şarjlı Nostaljik Radyo</t>
+  </si>
+  <si>
+    <t>1899</t>
+  </si>
+  <si>
+    <t>Everton Rt-41 Fm-Usb-TfCard-mp3 Bluetooth Şarjlı Nostaljik Radyo</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>Everton RRT-827 Ahşap Bluetooth Nostaljik Radyo</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>Everton RT-821 Usb/tf/fm/bluetooth Destekli Nostaljik Radyo</t>
+  </si>
+  <si>
+    <t>1159</t>
+  </si>
+  <si>
+    <t>Everton RT-310BT Bluetooth Nostaljik Radyo</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>Everton RT-314 Bluetooth Nostaljik Radyo</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>Everton RT-830 Bluetooth Nostaljik Radyo</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>Everton Shaver Şarjlı Nostaljik Retro Küçük Mini Radyo Müzik Mp3 Çalar USB Tf VT3077</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>Everton Rt-761 -Usb-Tf-Am-Fm-Sw-Blue-Connect-Tws-Usb Şarj Nostaljik Radyo</t>
+  </si>
+  <si>
+    <t>Everton RT-812 Bluetooth-USB-SD-FM Nostaljik Radyo</t>
+  </si>
+  <si>
+    <t>687</t>
+  </si>
+  <si>
+    <t>Everton Rt-834 Bluetooth Radyo-TF card-usb-Kumandalı Nostaljik Radyo Solar Güneş Panelli</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>Everton Rt-305bt Bluetooth Fm-usb-Tf Card-Aux Nostaljik Radyo</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>Everton RT-301 Bluetooth-Usb-Sd-Fm Nostaljik Radyo</t>
+  </si>
+  <si>
+    <t>Everton Rt 310 Nostaljik Radyo</t>
+  </si>
+  <si>
+    <t>522</t>
   </si>
 </sst>
 </file>
@@ -541,7 +625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
@@ -832,6 +916,126 @@
         <v>57</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/test/java/tests/K00_KisiselWebTestlerim/urunler.xlsx
+++ b/src/test/java/tests/K00_KisiselWebTestlerim/urunler.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
   <si>
     <t>Nimmy iPhone 16 Pro Max Uyumlu Nakış Işlemeli 3 Boyutlu 3D Kabartmalı Big Eyes Series Silikon Telefon Kılıfı</t>
   </si>
@@ -283,6 +283,90 @@
   </si>
   <si>
     <t>522</t>
+  </si>
+  <si>
+    <t>Everton Rt-310bt Bluetooth Fm-Usb-Tf Card- Şarjlı Nostaljik Radyo</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>Everton Nostalji Rodyo Eski Zamana Götüren Tasarım 90 Lar Nostaljik Radyo</t>
+  </si>
+  <si>
+    <t>872</t>
+  </si>
+  <si>
+    <t>Everton RT-715 Bluetooth-USB-SD-FM Şarjlı Nostaljik Radyo Led Fener Özellikli</t>
+  </si>
+  <si>
+    <t>Everton Blomster RT-822 Nostaljik Radyo Usb bt tf Müzik Çalar Everton</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Pro Dog Series Köpek Nakış Işlemeli Gözlük Detaylı 3D Yeşil Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Pro Max Magsafe Uyumlu Flamengo Series Pembe Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Cat Serisi Nakış İşlemeli Gözlük Zincir Detaylı 3D Mavi Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy Samsung S24 Ultra Tiger Series Gri Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>1049</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 16 Pro Max Uyumlu Nakış Işlemeli 3D Magsafe Magnetic Dazzling Series Silikon Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Pro Max Drill Serisi Turuncu Kedi Nakış İşlemeli Detaylı 3D Hologram Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>1298</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Panda Serisi Nakış İşlemeli Detaylı 3D Siyah Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy Samsung S24 Ultra Uyumlu Cat Series Pembe Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Pro Max Dog Serisi Nakış İşlemeli Gözlük Detaylı Siyah Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Pro Max Hiphop Serisi Kedi Nakış İşlemeli Zincir Detaylı Siyah Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>1359</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Pro Max Magsafe Uyumlu Leopar Serisi Nakış İşlemeli Detaylı 3D Altın Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Pro Max Wolf Serisi Kurt Nakış İşlemeli Detaylı 3D Füme Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy Hiphop Serisi Köpek Nakış Işlemeli Zincir Detaylı Kılıf iPhone 14 Pro Mor</t>
+  </si>
+  <si>
+    <t>Nimmy iPhone 15 Dog Serisi Nakış İşlemeli Gözlük / Zincir Detaylı Mor Telefon Kılıfı</t>
+  </si>
+  <si>
+    <t>Nimmy Dog Serisi Nakış Işlemeli Gözlük Detaylı Kılıf iPhone 14 Pro Max sarı</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>Nimmy Cat Serisi Kedi Nakış Işlemeli Detaylı Kılıf iPhone 14 Pro Max Pembe</t>
+  </si>
+  <si>
+    <t>1599</t>
   </si>
 </sst>
 </file>
@@ -625,7 +709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
@@ -1036,6 +1120,166 @@
         <v>85</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/test/java/tests/K00_KisiselWebTestlerim/urunler.xlsx
+++ b/src/test/java/tests/K00_KisiselWebTestlerim/urunler.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka.DESKTOP-U8GPDCH\Desktop\Yazılım\seleniumegitim\javaselenium\src\test\java\tests\K00_KisiselWebTestlerim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emirhan\Desktop\Furkan\github\java-selenium-junit-egitim\src\test\java\tests\K00_KisiselWebTestlerim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0B881E-AA72-4003-BEC3-BD231CB30444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CA545F-A418-429F-AE85-7117394322F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="123">
   <si>
     <t>Nimmy iPhone 16 Pro Max Uyumlu Nakış Işlemeli 3 Boyutlu 3D Kabartmalı Big Eyes Series Silikon Telefon Kılıfı</t>
   </si>
@@ -367,14 +367,40 @@
   </si>
   <si>
     <t>1599</t>
+  </si>
+  <si>
+    <t>Powerway WRX05 Bluetooth Hoparlör Extra Bass</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>Powerway Lock Kırmızı Taşınabilir Bluetooth Hoparlör Ses Bombası Kilit Özellikli Yüksek Ses Gücü</t>
+  </si>
+  <si>
+    <t>Powerway Boom Bluetooth Hoparlör Kablosuz Ses Bombası Speaker</t>
+  </si>
+  <si>
+    <t>Powerway WRX01 90 Db Sd Kart Aux USB Girişli Siyah Bluetooth Speaker Hoparlör Ses Bombası Fm Radyo</t>
+  </si>
+  <si>
+    <t>Powerway C4 Gümüş Taşınabilir Bluetooth Hoparlör Ses Bombası Yüksek Ses Gücü Sese Duyarlı LED Işık</t>
+  </si>
+  <si>
+    <t>Powerway Beatbox Animals Civciv LED Işıklı Dayanıklı Ses Bombası USB Sd Aux Bluetooth Hoparlör</t>
+  </si>
+  <si>
+    <t>Powerway Bigbox 40W LED Işıklı Bluetooth Hoparlör</t>
+  </si>
+  <si>
+    <t>Powerway Boom Gri Taşınabilir Ses Bombası Kablosuz Bluetooth Hoparlör Speaker Yüksek Ses Çoklu Bağlantı</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,21 +428,43 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF4B5563"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9FAFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE5E7EB"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -428,7 +476,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,38 +759,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="93.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="100.85546875"/>
+    <col min="1" max="1" width="104.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -748,7 +798,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -756,7 +806,7 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -764,7 +814,7 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -772,95 +822,95 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -868,7 +918,7 @@
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -876,408 +926,472 @@
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>48</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="B32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="B33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>54</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>56</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="B35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>58</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="B36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>60</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="B37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>62</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="B38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>64</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="B39" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>66</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="B40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>68</v>
       </c>
-      <c r="B41" t="s" s="0">
+      <c r="B41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>70</v>
       </c>
-      <c r="B42" t="s" s="0">
+      <c r="B42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s" s="0">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>72</v>
       </c>
-      <c r="B43" t="s" s="0">
+      <c r="B43" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="0">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>74</v>
       </c>
-      <c r="B44" t="s" s="0">
+      <c r="B44" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s" s="0">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>76</v>
       </c>
-      <c r="B45" t="s" s="0">
+      <c r="B45" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>77</v>
       </c>
-      <c r="B46" t="s" s="0">
+      <c r="B46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>79</v>
       </c>
-      <c r="B47" t="s" s="0">
+      <c r="B47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>81</v>
       </c>
-      <c r="B48" t="s" s="0">
+      <c r="B48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>83</v>
       </c>
-      <c r="B49" t="s" s="0">
+      <c r="B49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>84</v>
       </c>
-      <c r="B50" t="s" s="0">
+      <c r="B50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="0">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>86</v>
       </c>
-      <c r="B51" t="s" s="0">
+      <c r="B51" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="0">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>88</v>
       </c>
-      <c r="B52" t="s" s="0">
+      <c r="B52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s" s="0">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>90</v>
       </c>
-      <c r="B53" t="s" s="0">
+      <c r="B53" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>91</v>
       </c>
-      <c r="B54" t="s" s="0">
+      <c r="B54" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>93</v>
       </c>
-      <c r="B55" t="s" s="0">
+      <c r="B55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>94</v>
       </c>
-      <c r="B56" t="s" s="0">
+      <c r="B56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>95</v>
       </c>
-      <c r="B57" t="s" s="0">
+      <c r="B57" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>96</v>
       </c>
-      <c r="B58" t="s" s="0">
+      <c r="B58" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>98</v>
       </c>
-      <c r="B59" t="s" s="0">
+      <c r="B59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>99</v>
       </c>
-      <c r="B60" t="s" s="0">
+      <c r="B60" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s" s="0">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>101</v>
       </c>
-      <c r="B61" t="s" s="0">
+      <c r="B61" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="s" s="0">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>102</v>
       </c>
-      <c r="B62" t="s" s="0">
+      <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="s" s="0">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>103</v>
       </c>
-      <c r="B63" t="s" s="0">
+      <c r="B63" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="s" s="0">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>104</v>
       </c>
-      <c r="B64" t="s" s="0">
+      <c r="B64" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="s" s="0">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>106</v>
       </c>
-      <c r="B65" t="s" s="0">
+      <c r="B65" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s" s="0">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>107</v>
       </c>
-      <c r="B66" t="s" s="0">
+      <c r="B66" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="s" s="0">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>108</v>
       </c>
-      <c r="B67" t="s" s="0">
+      <c r="B67" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>109</v>
       </c>
-      <c r="B68" t="s" s="0">
+      <c r="B68" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>110</v>
       </c>
-      <c r="B69" t="s" s="0">
+      <c r="B69" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>112</v>
       </c>
-      <c r="B70" t="s" s="0">
+      <c r="B70" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
